--- a/Tabela Premier League.xlsx
+++ b/Tabela Premier League.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="82">
   <si>
     <t>Rodadas</t>
   </si>
@@ -215,15 +215,6 @@
     <t>BOU (F)</t>
   </si>
   <si>
-    <t>17° Rod.</t>
-  </si>
-  <si>
-    <t>18° Rod.</t>
-  </si>
-  <si>
-    <t>19° Rod.</t>
-  </si>
-  <si>
     <t>20° Rod.</t>
   </si>
   <si>
@@ -239,15 +230,6 @@
     <t>Sexta</t>
   </si>
   <si>
-    <t>Segunda</t>
-  </si>
-  <si>
-    <t>MCI (C)  / FUL (F)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEI (F) / CHE (C) </t>
-  </si>
-  <si>
     <t>C. PAL (F)</t>
   </si>
   <si>
@@ -279,6 +261,12 @@
   </si>
   <si>
     <t>Nível 5</t>
+  </si>
+  <si>
+    <t>24° Rod.</t>
+  </si>
+  <si>
+    <t>25° Rod.</t>
   </si>
 </sst>
 </file>
@@ -489,7 +477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -547,9 +535,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -560,19 +545,10 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -580,6 +556,12 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -890,25 +872,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="0.5546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.44140625" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.44140625" customWidth="1"/>
+    <col min="6" max="8" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -926,58 +905,52 @@
         <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="7">
-        <v>44921</v>
+        <v>44574</v>
       </c>
       <c r="D2" s="7">
-        <v>44925</v>
+        <v>44582</v>
       </c>
       <c r="E2" s="7">
-        <v>44563</v>
+        <v>44595</v>
       </c>
       <c r="F2" s="7">
-        <v>44574</v>
+        <v>44603</v>
       </c>
       <c r="G2" s="7">
-        <v>44582</v>
+        <v>44975</v>
       </c>
       <c r="H2" s="7">
-        <v>44595</v>
-      </c>
-      <c r="I2" s="7">
-        <v>44603</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+        <v>44981</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="8">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D3" s="8">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D3" s="8">
-        <v>0.63541666666666663</v>
-      </c>
       <c r="E3" s="8">
-        <v>0.54166666666666663</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="F3" s="8">
-        <v>0.64583333333333337</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G3" s="8">
         <v>0.33333333333333331</v>
@@ -985,652 +958,586 @@
       <c r="H3" s="8">
         <v>0.64583333333333337</v>
       </c>
-      <c r="I3" s="8">
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>4</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="L4" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="M4" s="30"/>
-    </row>
-    <row r="5" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="J4" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" s="33"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="19" t="s">
+      <c r="C5" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="D5" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="E5" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="I5" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="L5" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="M5" s="34"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F5" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" s="30"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="19" t="s">
+      <c r="C6" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="D6" s="21" t="s">
         <v>49</v>
       </c>
+      <c r="E6" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>35</v>
+      </c>
       <c r="H6" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="L6" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="M6" s="33"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" s="29"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" s="19" t="s">
+      <c r="C7" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="D7" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="E7" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="F7" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="L7" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="M7" s="32"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G7" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" s="28"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>31</v>
+        <v>60</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>50</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="L8" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="M8" s="35"/>
-    </row>
-    <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" s="31"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="C9" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>35</v>
+      <c r="C9" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>56</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>41</v>
+        <v>31</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>69</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="L9" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="M9" s="31"/>
-    </row>
-    <row r="10" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="K9" s="27"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="D10" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="E10" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="19" t="s">
+      <c r="F10" s="19" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G10" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="20" t="s">
+      <c r="C11" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="D11" s="21" t="s">
         <v>28</v>
       </c>
+      <c r="E11" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>51</v>
+      </c>
       <c r="H11" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="3"/>
-      <c r="C12" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>45</v>
+      <c r="C12" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>61</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>46</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="F13" s="22" t="s">
+      <c r="C13" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="D13" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="20" t="s">
+      <c r="E13" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="I13" s="19" t="s">
+      <c r="F13" s="19" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G13" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="3"/>
-      <c r="C14" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="19" t="s">
+      <c r="C14" s="19" t="s">
         <v>47</v>
       </c>
+      <c r="D14" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>27</v>
+      </c>
       <c r="G14" s="19" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I14" s="22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="3"/>
-      <c r="C15" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>46</v>
+      <c r="C15" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>44</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="I15" s="22" t="s">
+      <c r="F15" s="21" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G15" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="3"/>
-      <c r="C16" s="19" t="s">
-        <v>47</v>
+      <c r="C16" s="18" t="s">
+        <v>52</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>52</v>
+        <v>39</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="3"/>
-      <c r="C17" s="6" t="s">
-        <v>60</v>
+      <c r="C17" s="24" t="s">
+        <v>70</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>76</v>
+        <v>55</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>73</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="I17" s="25" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="3"/>
-      <c r="C18" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="20" t="s">
+      <c r="C18" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="D18" s="20" t="s">
         <v>50</v>
       </c>
+      <c r="E18" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>25</v>
+      </c>
       <c r="H18" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="3"/>
-      <c r="C19" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>50</v>
+      <c r="C19" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="H19" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="I19" s="18" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G19" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="3"/>
-      <c r="C20" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>39</v>
+      <c r="C20" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>63</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>63</v>
+        <v>33</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>42</v>
       </c>
       <c r="H20" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="I20" s="22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>62</v>
+        <v>57</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="H21" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="I21" s="19" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G21" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="3"/>
-      <c r="C22" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="G22" s="19" t="s">
+      <c r="C22" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="H22" s="22" t="s">
+      <c r="E22" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="I22" s="19" t="s">
+      <c r="F22" s="19" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G22" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="H23" s="22" t="s">
+      <c r="E23" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="I23" s="22" t="s">
+      <c r="F23" s="21" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G23" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="24" t="s">
+      <c r="C24" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="G24" s="20" t="s">
+      <c r="D24" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="H24" s="20" t="s">
+      <c r="E24" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="I24" s="19" t="s">
+      <c r="F24" s="19" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="23"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="23"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="23"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="23"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="23"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="23"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="23"/>
+      <c r="G24" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="22"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="22"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="22"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="22"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="22"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="22"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="22"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="22"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="23"/>
+      <c r="A33" s="22"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="23"/>
+      <c r="A34" s="22"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="23"/>
+      <c r="A35" s="22"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="23"/>
+      <c r="A36" s="22"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="23"/>
+      <c r="A37" s="22"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="23"/>
+      <c r="A38" s="22"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="23"/>
+      <c r="A39" s="22"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="23"/>
+      <c r="A40" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Tabela Premier League.xlsx
+++ b/Tabela Premier League.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\OneDrive\Área de Trabalho\Cursos TI\Site_FPL\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20112" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="95">
   <si>
     <t>Rodadas</t>
   </si>
@@ -131,15 +126,9 @@
     <t xml:space="preserve">ARS (C) </t>
   </si>
   <si>
-    <t xml:space="preserve">AVL (C) </t>
-  </si>
-  <si>
     <t xml:space="preserve">NFO (C) </t>
   </si>
   <si>
-    <t xml:space="preserve">BRE (C) </t>
-  </si>
-  <si>
     <t xml:space="preserve">CHE (C) </t>
   </si>
   <si>
@@ -149,9 +138,6 @@
     <t xml:space="preserve">LIV (C) </t>
   </si>
   <si>
-    <t xml:space="preserve">MCI (C) </t>
-  </si>
-  <si>
     <t xml:space="preserve">WOL (C) </t>
   </si>
   <si>
@@ -215,36 +201,9 @@
     <t>BOU (F)</t>
   </si>
   <si>
-    <t>20° Rod.</t>
-  </si>
-  <si>
-    <t>21° Rod.</t>
-  </si>
-  <si>
-    <t>22° Rod.</t>
-  </si>
-  <si>
-    <t>23° Rod.</t>
-  </si>
-  <si>
     <t>Sexta</t>
   </si>
   <si>
-    <t>C. PAL (F)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUN (F) / TOT (C) </t>
-  </si>
-  <si>
-    <t>ARS (C) / MCI (F)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRE (C) / MCI (C) </t>
-  </si>
-  <si>
-    <t>AVL (C) / ARS (F)</t>
-  </si>
-  <si>
     <t>DIFICULDADE</t>
   </si>
   <si>
@@ -263,17 +222,92 @@
     <t>Nível 5</t>
   </si>
   <si>
-    <t>24° Rod.</t>
-  </si>
-  <si>
-    <t>25° Rod.</t>
+    <t>26° Rod.</t>
+  </si>
+  <si>
+    <t>27° Rod.</t>
+  </si>
+  <si>
+    <t>28° Rod.</t>
+  </si>
+  <si>
+    <t>29° Rod.</t>
+  </si>
+  <si>
+    <t>30° Rod.</t>
+  </si>
+  <si>
+    <t>31° Rod.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEE (F) / C.PAL (C) </t>
+  </si>
+  <si>
+    <t>MCI (C) / BHA (F)</t>
+  </si>
+  <si>
+    <t>BRE (C)</t>
+  </si>
+  <si>
+    <t>MUN (F) / BRE ©</t>
+  </si>
+  <si>
+    <t>AVL (C)</t>
+  </si>
+  <si>
+    <t>CRY (F)</t>
+  </si>
+  <si>
+    <t>EVE (F) / SOU (F)</t>
+  </si>
+  <si>
+    <t>BLANK</t>
+  </si>
+  <si>
+    <t>CHE (F) / LEI (F)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUL (C) / BHA (C) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BHA (F) / MUN (C) </t>
+  </si>
+  <si>
+    <t>BRE © / BOU (F)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVL © / LIV (C) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARS (F) / NFO (C) </t>
+  </si>
+  <si>
+    <t>C. PAL (F) / AVL ©</t>
+  </si>
+  <si>
+    <t>MCI (F) / CHE (F)</t>
+  </si>
+  <si>
+    <t>NEW (F) / BRE ©</t>
+  </si>
+  <si>
+    <t>MUN (C) / WHU (F)</t>
+  </si>
+  <si>
+    <t>WOL (C) / LEE (F)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOU (C) / NEW (C) </t>
+  </si>
+  <si>
+    <t>MCI (C)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -324,6 +358,13 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -477,7 +518,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -560,6 +601,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -628,7 +678,7 @@
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -663,7 +713,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -874,74 +924,76 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="0.5546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.44140625" customWidth="1"/>
-    <col min="6" max="8" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="0.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16" style="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="7">
-        <v>44574</v>
+        <v>44989</v>
       </c>
       <c r="D2" s="7">
-        <v>44582</v>
+        <v>44996</v>
       </c>
       <c r="E2" s="7">
-        <v>44595</v>
+        <v>45002</v>
       </c>
       <c r="F2" s="7">
-        <v>44603</v>
+        <v>45017</v>
       </c>
       <c r="G2" s="7">
-        <v>44975</v>
+        <v>45024</v>
       </c>
       <c r="H2" s="7">
-        <v>44981</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>45031</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="8">
-        <v>0.64583333333333337</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D3" s="8">
         <v>0.33333333333333331</v>
@@ -950,28 +1002,28 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="F3" s="8">
-        <v>0.33333333333333331</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="G3" s="8">
         <v>0.33333333333333331</v>
       </c>
       <c r="H3" s="8">
-        <v>0.64583333333333337</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="9" t="s">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>4</v>
@@ -980,559 +1032,559 @@
         <v>4</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="J4" s="32" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="K4" s="33"/>
     </row>
-    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>56</v>
+      <c r="C5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>58</v>
       </c>
       <c r="J5" s="26" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="K5" s="30"/>
     </row>
-    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>35</v>
+        <v>30</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="J6" s="26" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="K6" s="29"/>
     </row>
-    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="19" t="s">
+      <c r="C7" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>42</v>
-      </c>
       <c r="J7" s="26" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>60</v>
+        <v>34</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>80</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>50</v>
+        <v>25</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>84</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>59</v>
+        <v>28</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="J8" s="26" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="K8" s="31"/>
     </row>
-    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="C9" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>34</v>
+      <c r="C9" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>52</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="J9" s="26" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="K9" s="27"/>
     </row>
-    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>46</v>
+      <c r="C10" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>53</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>28</v>
+      <c r="C11" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>75</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="3"/>
-      <c r="C12" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C12" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="21" t="s">
-        <v>58</v>
+      <c r="C13" s="19" t="s">
+        <v>48</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>53</v>
+        <v>35</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>81</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>52</v>
+        <v>60</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>32</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="3"/>
-      <c r="C14" s="19" t="s">
-        <v>47</v>
+      <c r="C14" s="20" t="s">
+        <v>50</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>27</v>
+        <v>45</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>87</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="3"/>
-      <c r="C15" s="18" t="s">
-        <v>54</v>
+      <c r="C15" s="21" t="s">
+        <v>46</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="H15" s="21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="3"/>
-      <c r="C16" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>26</v>
+      <c r="C16" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>89</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="3"/>
-      <c r="C17" s="24" t="s">
-        <v>70</v>
+      <c r="C17" s="19" t="s">
+        <v>28</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>73</v>
+        <v>79</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="3"/>
-      <c r="C18" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="18" t="s">
+      <c r="C18" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E18" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="3"/>
-      <c r="C19" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>69</v>
+      <c r="C19" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="H19" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>62</v>
+        <v>26</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>92</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="H20" s="19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="3"/>
-      <c r="C21" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>51</v>
+      <c r="C21" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>29</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="H21" s="21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="3"/>
-      <c r="C22" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>42</v>
+      <c r="C22" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="G22" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="H22" s="19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="H23" s="19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="E23" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="23" t="s">
-        <v>32</v>
+      <c r="C24" s="21" t="s">
+        <v>29</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>41</v>
+        <v>55</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>33</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="G24" s="19" t="s">
-        <v>31</v>
+        <v>51</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>37</v>
       </c>
       <c r="H24" s="19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="22"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="22"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="22"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="22"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="22"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="22"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="22"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="22"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="22"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="22"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="22"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="22"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="22"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="22"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="22"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="22"/>
     </row>
   </sheetData>
@@ -1550,7 +1602,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1562,7 +1614,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
